--- a/archive/categoria.xlsx
+++ b/archive/categoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio Analitica\Analisis de Grandes Datos\AGD_ArquitecturaInformacion\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1168D6C-993B-4FE5-879D-A8F18441C34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BAD717-321D-4C53-9884-EC281EB2CC8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{E9A278DF-2D85-46F3-AFBF-FA015985DF4B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>cool_stuff</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>TABLA</t>
+  </si>
+  <si>
+    <t>categoria</t>
   </si>
 </sst>
 </file>
@@ -649,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1ECB54-ECFD-44DF-A2C1-482648BB9D2D}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F2" sqref="F2:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,596 +666,894 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="str">
+        <f>+CONCATENATE("INSERT INTO ",$E$2," (",$B$1,") VALUES ('",B2,"');")</f>
+        <v>INSERT INTO categoria (category_name) VALUES ('perfumery');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">+CONCATENATE("INSERT INTO ",$E$2," (",$B$1,") VALUES ('",B3,"');")</f>
+        <v>INSERT INTO categoria (category_name) VALUES ('art');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('sports_leisure');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('baby');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('housewares');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('musical_instruments');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('cool_stuff');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('furniture_decor');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('home_appliances');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('toys');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('bed_bath_table');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('construction_tools_safety');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('computers_accessories');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('health_beauty');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('luggage_accessories');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('garden_tools');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('office_furniture');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('auto');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('electronics');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('fashion_shoes');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('telephony');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('stationery');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('fashion_bags_accessories');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('computers');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('home_construction');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('watches_gifts');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('construction_tools_construction');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('pet_shop');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('small_appliances');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('agro_industry_and_commerce');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('furniture_living_room');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('signaling_and_security');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('air_conditioning');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('consoles_games');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('books_general_interest');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('costruction_tools_tools');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('fashion_underwear_beach');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('fashion_male_clothing');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('kitchen_dining_laundry_garden_furniture');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('industry_commerce_and_business');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('fixed_telephony');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('construction_tools_lights');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('books_technical');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('home_appliances_2');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('party_supplies');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('drinks');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('market_place');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('la_cuisine');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('costruction_tools_garden');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('fashio_female_clothing');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('home_confort');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('audio');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('food_drink');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('music');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('food');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('tablets_printing_image');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('books_imported');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('small_appliances_home_oven_and_coffee');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('fashion_sport');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('christmas_supplies');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('fashion_childrens_clothes');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('dvds_blu_ray');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('arts_and_craftmanship');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('pc_games');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('furniture_bedroom');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F74" si="1">+CONCATENATE("INSERT INTO ",$E$2," (",$B$1,") VALUES ('",B67,"');")</f>
+        <v>INSERT INTO categoria (category_name) VALUES ('cine_photo');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('diapers_and_hygiene');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('flowers');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('home_comfort_2');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('kitchen_and_food_preparers');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('security_and_services');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('furniture_mattress_and_upholstery');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO categoria (category_name) VALUES ('cds_dvds_musicals');</v>
       </c>
     </row>
   </sheetData>
